--- a/analysis/results/Q1/models/supplements_models_terminal_ileum.xlsx
+++ b/analysis/results/Q1/models/supplements_models_terminal_ileum.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="knn" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="rf" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="gbm" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="glmnet_ra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="knn_ra" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rf_ra" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="gbm_ra" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="knn_model" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="rf_model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="gbm_model" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="enet_model_ra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="knn_model_ra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="rf_model_ra" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="gbm_model_ra" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">n.minobsinnode</t>
   </si>
   <si>
+    <t xml:space="preserve">0.999896480331263</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.990993788819876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999896480331263</t>
   </si>
   <si>
     <t xml:space="preserve">alpha</t>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>500</v>
@@ -1105,77 +1105,77 @@
         <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.971690953577765</v>
+        <v>0.95197309192526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.948526077097506</v>
+        <v>0.924246557840308</v>
       </c>
       <c r="I2" t="n">
-        <v>0.99393842364532</v>
+        <v>0.979294804128548</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.90362376766943</v>
+        <v>0.869867064348014</v>
       </c>
       <c r="L2" t="n">
-        <v>0.846469387755102</v>
+        <v>0.818710753532182</v>
       </c>
       <c r="M2" t="n">
-        <v>0.943951762523191</v>
+        <v>0.924225245653817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.824732058155666</v>
+        <v>0.871824809319464</v>
       </c>
       <c r="H3" t="n">
-        <v>0.762722842088213</v>
+        <v>0.829551006519092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.872283950617284</v>
+        <v>0.920505852842809</v>
       </c>
       <c r="J3" t="n">
-        <v>0.927884615384615</v>
+        <v>0.990384615384615</v>
       </c>
       <c r="K3" t="n">
-        <v>0.795871637737394</v>
+        <v>0.84693149915968</v>
       </c>
       <c r="L3" t="n">
-        <v>0.678421052631579</v>
+        <v>0.782767857142857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.851268398268398</v>
+        <v>0.917455029980013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0.1</v>
@@ -1187,30 +1187,30 @@
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.920523508167386</v>
+        <v>0.904361289650117</v>
       </c>
       <c r="H4" t="n">
-        <v>0.883392486406327</v>
+        <v>0.825414613076105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.966117487282355</v>
+        <v>0.944890690575232</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.867739086266594</v>
+        <v>0.86116137792418</v>
       </c>
       <c r="L4" t="n">
-        <v>0.82674880763116</v>
+        <v>0.810137085137085</v>
       </c>
       <c r="M4" t="n">
-        <v>0.903982456140351</v>
+        <v>0.903004978662873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>500</v>
@@ -1228,77 +1228,77 @@
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.95197309192526</v>
+        <v>0.971690953577765</v>
       </c>
       <c r="H5" t="n">
-        <v>0.924246557840308</v>
+        <v>0.948526077097506</v>
       </c>
       <c r="I5" t="n">
-        <v>0.979294804128548</v>
+        <v>0.99393842364532</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.869867064348014</v>
+        <v>0.90362376766943</v>
       </c>
       <c r="L5" t="n">
-        <v>0.818710753532182</v>
+        <v>0.846469387755102</v>
       </c>
       <c r="M5" t="n">
-        <v>0.924225245653817</v>
+        <v>0.943951762523191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.871824809319464</v>
+        <v>0.824732058155666</v>
       </c>
       <c r="H6" t="n">
-        <v>0.829551006519092</v>
+        <v>0.762722842088213</v>
       </c>
       <c r="I6" t="n">
-        <v>0.920505852842809</v>
+        <v>0.872283950617284</v>
       </c>
       <c r="J6" t="n">
-        <v>0.990384615384615</v>
+        <v>0.927884615384615</v>
       </c>
       <c r="K6" t="n">
-        <v>0.84693149915968</v>
+        <v>0.795871637737394</v>
       </c>
       <c r="L6" t="n">
-        <v>0.782767857142857</v>
+        <v>0.678421052631579</v>
       </c>
       <c r="M6" t="n">
-        <v>0.917455029980013</v>
+        <v>0.851268398268398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0.1</v>
@@ -1310,25 +1310,25 @@
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.904361289650117</v>
+        <v>0.920523508167386</v>
       </c>
       <c r="H7" t="n">
-        <v>0.825414613076105</v>
+        <v>0.883392486406327</v>
       </c>
       <c r="I7" t="n">
-        <v>0.944890690575232</v>
+        <v>0.966117487282355</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.86116137792418</v>
+        <v>0.867739086266594</v>
       </c>
       <c r="L7" t="n">
-        <v>0.810137085137085</v>
+        <v>0.82674880763116</v>
       </c>
       <c r="M7" t="n">
-        <v>0.903004978662873</v>
+        <v>0.903982456140351</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results/Q1/models/supplements_models_terminal_ileum.xlsx
+++ b/analysis/results/Q1/models/supplements_models_terminal_ileum.xlsx
@@ -569,25 +569,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86295238712265</v>
+        <v>0.870725486953531</v>
       </c>
       <c r="E2" t="n">
-        <v>0.774912946428572</v>
+        <v>0.761144268774704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.945580070970696</v>
+        <v>0.953813856960409</v>
       </c>
       <c r="G2" t="n">
         <v>0.776223776223776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.765304750737137</v>
+        <v>0.760625074004977</v>
       </c>
       <c r="I2" t="n">
-        <v>0.667561683599419</v>
+        <v>0.64</v>
       </c>
       <c r="J2" t="n">
-        <v>0.862037037037037</v>
+        <v>0.871404649330181</v>
       </c>
     </row>
     <row r="3">
@@ -601,25 +601,25 @@
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.676040552172218</v>
+        <v>0.686109821271223</v>
       </c>
       <c r="E3" t="n">
-        <v>0.594121272246272</v>
+        <v>0.554611040068201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.772038740245262</v>
+        <v>0.79361238851728</v>
       </c>
       <c r="G3" t="n">
         <v>0.706730769230769</v>
       </c>
       <c r="H3" t="n">
-        <v>0.66734079029149</v>
+        <v>0.670762667459049</v>
       </c>
       <c r="I3" t="n">
-        <v>0.593881578947368</v>
+        <v>0.569767441860465</v>
       </c>
       <c r="J3" t="n">
-        <v>0.753189189189189</v>
+        <v>0.768229715489989</v>
       </c>
     </row>
     <row r="4">
@@ -633,25 +633,25 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.852485508228603</v>
+        <v>0.86957178087504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.820275474987547</v>
+        <v>0.780409002229654</v>
       </c>
       <c r="F4" t="n">
-        <v>0.89569817166159</v>
+        <v>0.953419444444444</v>
       </c>
       <c r="G4" t="n">
         <v>0.872037914691943</v>
       </c>
       <c r="H4" t="n">
-        <v>0.805315464060257</v>
+        <v>0.819702324853442</v>
       </c>
       <c r="I4" t="n">
-        <v>0.727537016973637</v>
+        <v>0.730223492723493</v>
       </c>
       <c r="J4" t="n">
-        <v>0.862704480796586</v>
+        <v>0.897256787330317</v>
       </c>
     </row>
     <row r="5">
@@ -665,25 +665,25 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.890818811163456</v>
+        <v>0.886789828092982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.821660052910053</v>
+        <v>0.799527736131934</v>
       </c>
       <c r="F5" t="n">
-        <v>0.948241267660911</v>
+        <v>0.96</v>
       </c>
       <c r="G5" t="n">
         <v>0.769230769230769</v>
       </c>
       <c r="H5" t="n">
-        <v>0.775946509198302</v>
+        <v>0.750556505294085</v>
       </c>
       <c r="I5" t="n">
-        <v>0.728059440559441</v>
+        <v>0.607475490196078</v>
       </c>
       <c r="J5" t="n">
-        <v>0.832697740112994</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -697,25 +697,25 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76976240182823</v>
+        <v>0.727460372790466</v>
       </c>
       <c r="E6" t="n">
-        <v>0.667567205965959</v>
+        <v>0.60823777173913</v>
       </c>
       <c r="F6" t="n">
-        <v>0.854494780581737</v>
+        <v>0.833277621393385</v>
       </c>
       <c r="G6" t="n">
         <v>0.769230769230769</v>
       </c>
       <c r="H6" t="n">
-        <v>0.726853860845367</v>
+        <v>0.696174277941708</v>
       </c>
       <c r="I6" t="n">
-        <v>0.619330357142857</v>
+        <v>0.596180555555555</v>
       </c>
       <c r="J6" t="n">
-        <v>0.809016932434654</v>
+        <v>0.795033982082175</v>
       </c>
     </row>
     <row r="7">
@@ -729,25 +729,25 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.904011101563619</v>
+        <v>0.921473690000098</v>
       </c>
       <c r="E7" t="n">
-        <v>0.847137565433413</v>
+        <v>0.856708466880342</v>
       </c>
       <c r="F7" t="n">
-        <v>0.929176167582418</v>
+        <v>0.973961416327537</v>
       </c>
       <c r="G7" t="n">
         <v>0.853080568720379</v>
       </c>
       <c r="H7" t="n">
-        <v>0.787238527503255</v>
+        <v>0.79970114443183</v>
       </c>
       <c r="I7" t="n">
-        <v>0.688065789473684</v>
+        <v>0.682073234984194</v>
       </c>
       <c r="J7" t="n">
-        <v>0.864735264735265</v>
+        <v>0.898782051282051</v>
       </c>
     </row>
   </sheetData>
@@ -819,25 +819,25 @@
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>0.932679064217736</v>
+        <v>0.946522967896727</v>
       </c>
       <c r="G2" t="n">
-        <v>0.886863252488252</v>
+        <v>0.872657190635452</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97808</v>
+        <v>0.994991546914624</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.858624171152222</v>
+        <v>0.868116967497498</v>
       </c>
       <c r="K2" t="n">
-        <v>0.748563869992441</v>
+        <v>0.760904761904762</v>
       </c>
       <c r="L2" t="n">
-        <v>0.944982142857143</v>
+        <v>0.960024009603841</v>
       </c>
     </row>
     <row r="3">
@@ -857,25 +857,25 @@
         <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>0.870909081951275</v>
+        <v>0.855586388965312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.829735484182099</v>
+        <v>0.756002849298634</v>
       </c>
       <c r="H3" t="n">
-        <v>0.923231847086661</v>
+        <v>0.94125303647892</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.848048995897097</v>
+        <v>0.833018440754972</v>
       </c>
       <c r="K3" t="n">
-        <v>0.785</v>
+        <v>0.746478873239437</v>
       </c>
       <c r="L3" t="n">
-        <v>0.894874250499667</v>
+        <v>0.91029919447641</v>
       </c>
     </row>
     <row r="4">
@@ -895,25 +895,25 @@
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>0.88792641814837</v>
+        <v>0.899657441684748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.839237867092538</v>
+        <v>0.817280086145294</v>
       </c>
       <c r="H4" t="n">
-        <v>0.954012760293623</v>
+        <v>0.97059533376017</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.866501045306784</v>
+        <v>0.874331006094165</v>
       </c>
       <c r="K4" t="n">
-        <v>0.808116883116883</v>
+        <v>0.7870625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.916632690882135</v>
+        <v>0.941213128375571</v>
       </c>
     </row>
     <row r="5">
@@ -933,25 +933,25 @@
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.938872838421165</v>
+        <v>0.949544126506354</v>
       </c>
       <c r="G5" t="n">
-        <v>0.896699134199134</v>
+        <v>0.877100694444444</v>
       </c>
       <c r="H5" t="n">
-        <v>0.986024539317643</v>
+        <v>0.995945267489712</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.871561447868497</v>
+        <v>0.876487123029188</v>
       </c>
       <c r="K5" t="n">
-        <v>0.787884814942926</v>
+        <v>0.780416666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.940580808080808</v>
+        <v>0.961538461538462</v>
       </c>
     </row>
     <row r="6">
@@ -971,25 +971,25 @@
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.828965219359647</v>
+        <v>0.824437785871872</v>
       </c>
       <c r="G6" t="n">
-        <v>0.775837391774892</v>
+        <v>0.718858357988166</v>
       </c>
       <c r="H6" t="n">
-        <v>0.872597340930674</v>
+        <v>0.906287763975155</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.785379650705933</v>
+        <v>0.796290019005541</v>
       </c>
       <c r="K6" t="n">
-        <v>0.716595394736842</v>
+        <v>0.703770114942529</v>
       </c>
       <c r="L6" t="n">
-        <v>0.836126582278481</v>
+        <v>0.872646867900032</v>
       </c>
     </row>
     <row r="7">
@@ -1009,25 +1009,25 @@
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.887187071510937</v>
+        <v>0.911773922990866</v>
       </c>
       <c r="G7" t="n">
-        <v>0.840087392423033</v>
+        <v>0.821060434095083</v>
       </c>
       <c r="H7" t="n">
-        <v>0.931997858145293</v>
+        <v>0.978766987729252</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.843625765127662</v>
+        <v>0.868250780984961</v>
       </c>
       <c r="K7" t="n">
-        <v>0.777726244343891</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.901021929824561</v>
+        <v>0.942148725687458</v>
       </c>
     </row>
   </sheetData>
@@ -1105,25 +1105,25 @@
         <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.95197309192526</v>
+        <v>0.954890500582366</v>
       </c>
       <c r="H2" t="n">
-        <v>0.924246557840308</v>
+        <v>0.902203856749311</v>
       </c>
       <c r="I2" t="n">
-        <v>0.979294804128548</v>
+        <v>0.99193774975025</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.869867064348014</v>
+        <v>0.879378871499524</v>
       </c>
       <c r="L2" t="n">
-        <v>0.818710753532182</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="M2" t="n">
-        <v>0.924225245653817</v>
+        <v>0.960411764705882</v>
       </c>
     </row>
     <row r="3">
@@ -1146,25 +1146,25 @@
         <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.871824809319464</v>
+        <v>0.867805434184893</v>
       </c>
       <c r="H3" t="n">
-        <v>0.829551006519092</v>
+        <v>0.786898419827558</v>
       </c>
       <c r="I3" t="n">
-        <v>0.920505852842809</v>
+        <v>0.935120383731495</v>
       </c>
       <c r="J3" t="n">
         <v>0.990384615384615</v>
       </c>
       <c r="K3" t="n">
-        <v>0.84693149915968</v>
+        <v>0.834098558799106</v>
       </c>
       <c r="L3" t="n">
-        <v>0.782767857142857</v>
+        <v>0.74825</v>
       </c>
       <c r="M3" t="n">
-        <v>0.917455029980013</v>
+        <v>0.908522727272727</v>
       </c>
     </row>
     <row r="4">
@@ -1187,25 +1187,25 @@
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.904361289650117</v>
+        <v>0.925099393763609</v>
       </c>
       <c r="H4" t="n">
-        <v>0.825414613076105</v>
+        <v>0.852221153846154</v>
       </c>
       <c r="I4" t="n">
-        <v>0.944890690575232</v>
+        <v>0.981895193065406</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.86116137792418</v>
+        <v>0.8766714387098</v>
       </c>
       <c r="L4" t="n">
-        <v>0.810137085137085</v>
+        <v>0.805035425101215</v>
       </c>
       <c r="M4" t="n">
-        <v>0.903004978662873</v>
+        <v>0.935897435897436</v>
       </c>
     </row>
     <row r="5">
@@ -1228,25 +1228,25 @@
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.971690953577765</v>
+        <v>0.972739743693322</v>
       </c>
       <c r="H5" t="n">
-        <v>0.948526077097506</v>
+        <v>0.927517428154609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.99393842364532</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.90362376766943</v>
+        <v>0.903750377148637</v>
       </c>
       <c r="L5" t="n">
-        <v>0.846469387755102</v>
+        <v>0.815532879818594</v>
       </c>
       <c r="M5" t="n">
-        <v>0.943951762523191</v>
+        <v>0.971954022988506</v>
       </c>
     </row>
     <row r="6">
@@ -1269,25 +1269,25 @@
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.824732058155666</v>
+        <v>0.830319711990047</v>
       </c>
       <c r="H6" t="n">
-        <v>0.762722842088213</v>
+        <v>0.740375</v>
       </c>
       <c r="I6" t="n">
-        <v>0.872283950617284</v>
+        <v>0.911562102230857</v>
       </c>
       <c r="J6" t="n">
         <v>0.927884615384615</v>
       </c>
       <c r="K6" t="n">
-        <v>0.795871637737394</v>
+        <v>0.798714366235008</v>
       </c>
       <c r="L6" t="n">
-        <v>0.678421052631579</v>
+        <v>0.705384976525822</v>
       </c>
       <c r="M6" t="n">
-        <v>0.851268398268398</v>
+        <v>0.876773648648649</v>
       </c>
     </row>
     <row r="7">
@@ -1310,25 +1310,25 @@
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.920523508167386</v>
+        <v>0.936976226022291</v>
       </c>
       <c r="H7" t="n">
-        <v>0.883392486406327</v>
+        <v>0.867859021238229</v>
       </c>
       <c r="I7" t="n">
-        <v>0.966117487282355</v>
+        <v>0.983406382280558</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.867739086266594</v>
+        <v>0.881300117535575</v>
       </c>
       <c r="L7" t="n">
-        <v>0.82674880763116</v>
+        <v>0.813333333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>0.903982456140351</v>
+        <v>0.94484398782344</v>
       </c>
     </row>
   </sheetData>
